--- a/data/trans_orig/Q19A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q19A-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.3971604008517451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2588346516745923</v>
+        <v>0.2588346516745924</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4458536662442743</v>
@@ -693,7 +693,7 @@
         <v>0.4700633938954218</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3436656184344301</v>
+        <v>0.3436656184344302</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.281048651298745</v>
+        <v>0.2797475376981433</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2849071122837443</v>
+        <v>0.2830024033797821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3403803711792595</v>
+        <v>0.3417544600767263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1942861929528325</v>
+        <v>0.1882177514117646</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3796627203700369</v>
+        <v>0.3805483949483606</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4763575652175088</v>
+        <v>0.475196477674019</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4769330475878034</v>
+        <v>0.4759940165607436</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3408199675540148</v>
+        <v>0.3407549581981182</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3538792082785196</v>
+        <v>0.3608019343711891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3978922171559889</v>
+        <v>0.3973785244353699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4304908736771612</v>
+        <v>0.4261053773828876</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2970140275441153</v>
+        <v>0.2965141941472602</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4792324032198307</v>
+        <v>0.5018024035619367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3987973782367367</v>
+        <v>0.3994575755813837</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4676303690924968</v>
+        <v>0.4668478002019217</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3437348594931871</v>
+        <v>0.3419368356492729</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5432366958442655</v>
+        <v>0.5380750812546949</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6962096188771157</v>
+        <v>0.6957412957512614</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6128550734977797</v>
+        <v>0.6174354836989876</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4984299472236742</v>
+        <v>0.4983917309416761</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4819548545847789</v>
+        <v>0.4820601073890765</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5187346388491214</v>
+        <v>0.5220193523562668</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.522503804376365</v>
+        <v>0.5221056670206432</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.403374392721211</v>
+        <v>0.4096968969746431</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3134773854807712</v>
+        <v>0.3184633943365445</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2967375608419381</v>
+        <v>0.2979809615993232</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4370249162679577</v>
+        <v>0.4442514709709976</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2719741545088869</v>
+        <v>0.268362866085794</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4168100105465917</v>
+        <v>0.4197993910314314</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5349677563799601</v>
+        <v>0.5340158084080455</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4586283792816776</v>
+        <v>0.4544377139845924</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3818928185204545</v>
+        <v>0.3794743897123077</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3804497920876048</v>
+        <v>0.3830185228689352</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.437979730774629</v>
+        <v>0.4346684483777019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4632665252499635</v>
+        <v>0.4668765706886225</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.34398255983302</v>
+        <v>0.3443814285129447</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4600268845876378</v>
+        <v>0.4516998175561761</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4119547088077652</v>
+        <v>0.4084476633398882</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6112763779279</v>
+        <v>0.6207420428375945</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4060939788338185</v>
+        <v>0.398059047043891</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6099315453750712</v>
+        <v>0.5963449636313944</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7314618441017442</v>
+        <v>0.7335968546211028</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5917793573147558</v>
+        <v>0.5789616043309458</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5085884657390315</v>
+        <v>0.5070860914196291</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4937541898384948</v>
+        <v>0.4930451257216339</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5577280758640647</v>
+        <v>0.5593976608738189</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5640144430740797</v>
+        <v>0.5654201554662484</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4342467976244069</v>
+        <v>0.4353750835784949</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.38482732150097</v>
+        <v>0.3842320127988579</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4168343977604633</v>
+        <v>0.4166314859242217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4655508988288936</v>
+        <v>0.4639531480249112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4242897289656344</v>
+        <v>0.4223569946648298</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4788036416785038</v>
+        <v>0.4773819938877126</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5461352978827816</v>
+        <v>0.5388434205970537</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4970725267052067</v>
+        <v>0.4942521736132602</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5463318944835209</v>
+        <v>0.5376995354108068</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4437848114358631</v>
+        <v>0.4465017631481691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5010392815360321</v>
+        <v>0.5045929142869503</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4972806094304082</v>
+        <v>0.5071877005713422</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5036079408881335</v>
+        <v>0.5057333496008946</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5351934553337929</v>
+        <v>0.5354106514488799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5910531526713335</v>
+        <v>0.5905161689305086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6477099650529717</v>
+        <v>0.641070062228523</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6326748250089692</v>
+        <v>0.62956090513818</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6113552802137906</v>
+        <v>0.6214426653614024</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7716115325194349</v>
+        <v>0.7605024656390194</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6648211371984751</v>
+        <v>0.6665305028791565</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7247262719598553</v>
+        <v>0.7193408391578648</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5486289000688349</v>
+        <v>0.5482456722902979</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6563798660349457</v>
+        <v>0.6460568125297227</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6207040718766824</v>
+        <v>0.6244223922843377</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6415324855353653</v>
+        <v>0.6404358932546983</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.4950554348595293</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5030634207808439</v>
+        <v>0.5030634207808438</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.8079829103374407</v>
@@ -1101,7 +1101,7 @@
         <v>0.5826119419033859</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6106454173008782</v>
+        <v>0.610645417300878</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4408610978357956</v>
+        <v>0.4511157023672436</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5253058761384901</v>
+        <v>0.509908934580373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4072540706205813</v>
+        <v>0.409310605561831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4447297431925044</v>
+        <v>0.4411441484873381</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6479459681517442</v>
+        <v>0.6522357170365296</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5314877305780736</v>
+        <v>0.5171522480866433</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5715087808233913</v>
+        <v>0.5613000129473213</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6169994451146729</v>
+        <v>0.6334039305818085</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5672203691730677</v>
+        <v>0.5694299523317757</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5434137378925471</v>
+        <v>0.5482630368490626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5199819020459151</v>
+        <v>0.5084355933257901</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5536283667982269</v>
+        <v>0.555722325944056</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.82703002499095</v>
+        <v>0.8192994636974948</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7952255028364577</v>
+        <v>0.7762767798148856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6067177464001969</v>
+        <v>0.6091587836682735</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5751382802027997</v>
+        <v>0.5796196380002402</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.034796604309484</v>
+        <v>1.046902011060843</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7955795821344801</v>
+        <v>0.7940073455753693</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8046978334849749</v>
+        <v>0.7942112999195986</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8671435545953885</v>
+        <v>0.8692004192239009</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8434531891813055</v>
+        <v>0.8244605692347229</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7358413310895895</v>
+        <v>0.7526530145881495</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6717679493588199</v>
+        <v>0.6584165468053307</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.695947168605599</v>
+        <v>0.6900136302913876</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.5181153822228662</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4884794652682395</v>
+        <v>0.4884794652682396</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3863329965530578</v>
+        <v>0.386689128169955</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3844772212955443</v>
+        <v>0.3823917577582925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4403255185052372</v>
+        <v>0.4430096461003624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3843879783807735</v>
+        <v>0.3845297051490216</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4843113721469514</v>
+        <v>0.4839292634962407</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5620997271401666</v>
+        <v>0.5542492886158714</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5205005961610445</v>
+        <v>0.5228240910745611</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5097276053179505</v>
+        <v>0.5159108234679917</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.447390082963703</v>
+        <v>0.4439719714702592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4827063461587235</v>
+        <v>0.4835715870516868</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4935952763394907</v>
+        <v>0.4905592639008642</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4576005019807969</v>
+        <v>0.4592327335915184</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4816378118750875</v>
+        <v>0.4771275360672936</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4609192944507247</v>
+        <v>0.4569529166436758</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5194729261229751</v>
+        <v>0.5258244704606013</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4633548594427256</v>
+        <v>0.4725775502337531</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5743487687775747</v>
+        <v>0.5772801312390731</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6703029071415451</v>
+        <v>0.6656958249168481</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5998845611493759</v>
+        <v>0.6008479385662792</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6047949145190137</v>
+        <v>0.5982246901991759</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5083804891830765</v>
+        <v>0.5115457283479046</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5535157633505867</v>
+        <v>0.5527165965820292</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5482400044082689</v>
+        <v>0.5481053794383792</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5165651558000546</v>
+        <v>0.5213469789432209</v>
       </c>
     </row>
     <row r="19">
